--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2016.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2016.xlsx
@@ -140,9 +140,6 @@
     <t>HRA Pharma</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Pierre Fabre</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -3070,28 +3070,28 @@
         <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>507078</v>
+        <v>2230838</v>
       </c>
       <c r="D82" t="n">
-        <v>2974195</v>
+        <v>738503</v>
       </c>
       <c r="E82" t="n">
-        <v>1537179</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>102416</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>521019</v>
+        <v>72967</v>
       </c>
       <c r="H82" t="n">
-        <v>12458</v>
+        <v>29</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>5654345</v>
+        <v>3042337</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3106,22 +3106,22 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>39500</v>
+        <v>17893</v>
       </c>
       <c r="F83" t="n">
-        <v>115614</v>
+        <v>39251</v>
       </c>
       <c r="G83" t="n">
-        <v>265545</v>
+        <v>124545</v>
       </c>
       <c r="H83" t="n">
-        <v>45107</v>
+        <v>9953</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>465766</v>
+        <v>191642</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3148,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>7666519</v>
+        <v>833283</v>
       </c>
       <c r="J84" t="n">
-        <v>7666519</v>
+        <v>833283</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3162,28 +3162,28 @@
         <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>2230838</v>
+        <v>24564.24</v>
       </c>
       <c r="D85" t="n">
-        <v>738503</v>
+        <v>186037.19</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G85" t="n">
-        <v>72967</v>
+        <v>1150</v>
       </c>
       <c r="H85" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3042337</v>
+        <v>215651.43</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3198,75 +3198,75 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>17893</v>
+        <v>803.4400000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>39251</v>
+        <v>2116.98</v>
       </c>
       <c r="G86" t="n">
-        <v>124545</v>
+        <v>37017.8</v>
       </c>
       <c r="H86" t="n">
-        <v>9953</v>
+        <v>2262.41</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>191642</v>
+        <v>42200.63</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="1" t="n"/>
+      <c r="A87" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>10544</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>395949</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>13126</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="I87" t="n">
-        <v>833283</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>833283</v>
+        <v>422311</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>24564.24</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>186037.19</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>24932.35</v>
       </c>
       <c r="F88" t="n">
-        <v>3900</v>
+        <v>61719.85</v>
       </c>
       <c r="G88" t="n">
-        <v>1150</v>
+        <v>111871</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>215651.43</v>
+        <v>198523.2</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -3290,22 +3290,22 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>803.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2116.98</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>37017.8</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2262.41</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>85199.5</v>
       </c>
       <c r="J89" t="n">
-        <v>42200.63</v>
+        <v>85199.5</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3316,28 +3316,28 @@
         <v>11</v>
       </c>
       <c r="C90" t="n">
-        <v>10544</v>
+        <v>898661.74</v>
       </c>
       <c r="D90" t="n">
-        <v>395949</v>
+        <v>2204669.93</v>
       </c>
       <c r="E90" t="n">
-        <v>826</v>
+        <v>30965.18</v>
       </c>
       <c r="F90" t="n">
-        <v>1284</v>
+        <v>162746.45</v>
       </c>
       <c r="G90" t="n">
-        <v>13126</v>
+        <v>302937.18</v>
       </c>
       <c r="H90" t="n">
-        <v>582</v>
+        <v>2282.47</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>422311</v>
+        <v>3602262.95</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3349,25 +3349,25 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>31450</v>
       </c>
       <c r="E91" t="n">
-        <v>24932.35</v>
+        <v>26570.89</v>
       </c>
       <c r="F91" t="n">
-        <v>61719.85</v>
+        <v>141090.41</v>
       </c>
       <c r="G91" t="n">
-        <v>111871</v>
+        <v>452560.05</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>17450.39</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>198523.2</v>
+        <v>669121.74</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3394,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>85199.5</v>
+        <v>2242292.81</v>
       </c>
       <c r="J92" t="n">
-        <v>85199.5</v>
+        <v>2242292.81</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3408,28 +3408,28 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>898661.74</v>
+        <v>10348</v>
       </c>
       <c r="D93" t="n">
-        <v>2204669.93</v>
+        <v>671294</v>
       </c>
       <c r="E93" t="n">
-        <v>30965.18</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>162746.45</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>302937.18</v>
+        <v>14300</v>
       </c>
       <c r="H93" t="n">
-        <v>2282.47</v>
+        <v>432</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3602262.95</v>
+        <v>696374</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3441,93 +3441,93 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>31450</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>26570.89</v>
+        <v>12241</v>
       </c>
       <c r="F94" t="n">
-        <v>141090.41</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>452560.05</v>
+        <v>160529</v>
       </c>
       <c r="H94" t="n">
-        <v>17450.39</v>
+        <v>1172</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>669121.74</v>
+        <v>173942</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="1" t="n"/>
+      <c r="A95" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>3550438.19</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1121184.56</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>38750.76</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>85082.42</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>28109.74</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>528.9299999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>2242292.81</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2242292.81</v>
+        <v>4824094.6</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>10348</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>671294</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>31520.76</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>115731.24</v>
       </c>
       <c r="G96" t="n">
-        <v>14300</v>
+        <v>125127.52</v>
       </c>
       <c r="H96" t="n">
-        <v>432</v>
+        <v>19145.61</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>696374</v>
+        <v>291525.13</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3536,22 +3536,22 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>12241</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>160529</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1172</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>309361</v>
       </c>
       <c r="J97" t="n">
-        <v>173942</v>
+        <v>309361</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3562,28 +3562,28 @@
         <v>11</v>
       </c>
       <c r="C98" t="n">
-        <v>3550438.19</v>
+        <v>590313.7</v>
       </c>
       <c r="D98" t="n">
-        <v>1121184.56</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>38750.76</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>85082.42</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>28109.74</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>528.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4824094.6</v>
+        <v>590313.7</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3598,22 +3598,22 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>31520.76</v>
+        <v>21977</v>
       </c>
       <c r="F99" t="n">
-        <v>115731.24</v>
+        <v>55351</v>
       </c>
       <c r="G99" t="n">
-        <v>125127.52</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>19145.61</v>
+        <v>55133</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>291525.13</v>
+        <v>132461</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3640,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>309361</v>
+        <v>149847</v>
       </c>
       <c r="J100" t="n">
-        <v>309361</v>
+        <v>149847</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3654,10 +3654,10 @@
         <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>590313.7</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>283760</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>590313.7</v>
+        <v>292260</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3690,34 +3690,36 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>21977</v>
+        <v>8078</v>
       </c>
       <c r="F102" t="n">
-        <v>55351</v>
+        <v>9558</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="H102" t="n">
-        <v>55133</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>132461</v>
+        <v>42836</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="1" t="n"/>
+      <c r="A103" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -3732,42 +3734,42 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>149847</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>149847</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1952068.9</v>
       </c>
       <c r="D104" t="n">
-        <v>283760</v>
+        <v>5414318.17</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>136492.33</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>112888.49</v>
       </c>
       <c r="G104" t="n">
-        <v>8500</v>
+        <v>2092396.87</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>73374.59</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>292260</v>
+        <v>9781539.35</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3782,36 +3784,34 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>8078</v>
+        <v>146309.61</v>
       </c>
       <c r="F105" t="n">
-        <v>9558</v>
+        <v>158986.99</v>
       </c>
       <c r="G105" t="n">
-        <v>25200</v>
+        <v>873287.36</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>57738.39</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>42836</v>
+        <v>1236322.35</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -3826,10 +3826,10 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>12053857.16</v>
       </c>
       <c r="J106" t="n">
-        <v>10000</v>
+        <v>12053857.16</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3840,28 +3840,28 @@
         <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>1952068.9</v>
+        <v>1002308</v>
       </c>
       <c r="D107" t="n">
-        <v>5414318.17</v>
+        <v>158188</v>
       </c>
       <c r="E107" t="n">
-        <v>136492.33</v>
+        <v>15531</v>
       </c>
       <c r="F107" t="n">
-        <v>112888.49</v>
+        <v>57200</v>
       </c>
       <c r="G107" t="n">
-        <v>2092396.87</v>
+        <v>42551</v>
       </c>
       <c r="H107" t="n">
-        <v>73374.59</v>
+        <v>2967</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>9781539.35</v>
+        <v>1278745</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3870,28 +3870,28 @@
         <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E108" t="n">
-        <v>146309.61</v>
+        <v>77806</v>
       </c>
       <c r="F108" t="n">
-        <v>158986.99</v>
+        <v>210371.24</v>
       </c>
       <c r="G108" t="n">
-        <v>873287.36</v>
+        <v>164733.26</v>
       </c>
       <c r="H108" t="n">
-        <v>57738.39</v>
+        <v>16116.6</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1236322.35</v>
+        <v>486027.1</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>12053857.16</v>
+        <v>273102</v>
       </c>
       <c r="J109" t="n">
-        <v>12053857.16</v>
+        <v>273102</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3932,28 +3932,28 @@
         <v>11</v>
       </c>
       <c r="C110" t="n">
-        <v>1002308</v>
+        <v>140786</v>
       </c>
       <c r="D110" t="n">
-        <v>158188</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>15531</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>57200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>42551</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>2967</v>
+        <v>141586</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1278745</v>
+        <v>282372</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3962,40 +3962,42 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>9000</v>
+        <v>10174.64</v>
       </c>
       <c r="E111" t="n">
-        <v>77806</v>
+        <v>29049.98</v>
       </c>
       <c r="F111" t="n">
-        <v>210371.24</v>
+        <v>14550</v>
       </c>
       <c r="G111" t="n">
-        <v>164733.26</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>16116.6</v>
+        <v>48719.14</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>486027.1</v>
+        <v>102493.76</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="1" t="n"/>
+      <c r="A112" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B112" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>71985.10000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>129977.4</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -4004,78 +4006,76 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>16514.38</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>71.48</v>
       </c>
       <c r="I112" t="n">
-        <v>273102</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>273102</v>
+        <v>218548.36</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" t="n">
-        <v>140786</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>8214.75</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>18465.02</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>33231</v>
       </c>
       <c r="H113" t="n">
-        <v>141586</v>
+        <v>734.14</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>282372</v>
+        <v>60644.91</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>10174.64</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>29049.98</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>14550</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>48719.14</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J114" t="n">
-        <v>102493.76</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4086,28 +4086,28 @@
         <v>11</v>
       </c>
       <c r="C115" t="n">
-        <v>71985.10000000001</v>
+        <v>2485715</v>
       </c>
       <c r="D115" t="n">
-        <v>129977.4</v>
+        <v>4513102</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>4267</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>32649</v>
       </c>
       <c r="G115" t="n">
-        <v>16514.38</v>
+        <v>401078</v>
       </c>
       <c r="H115" t="n">
-        <v>71.48</v>
+        <v>2561</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>218548.36</v>
+        <v>7439372</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4122,22 +4122,22 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>8214.75</v>
+        <v>64032</v>
       </c>
       <c r="F116" t="n">
-        <v>18465.02</v>
+        <v>231366</v>
       </c>
       <c r="G116" t="n">
-        <v>33231</v>
+        <v>301213</v>
       </c>
       <c r="H116" t="n">
-        <v>734.14</v>
+        <v>21863</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>60644.91</v>
+        <v>618474</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4164,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>35000</v>
+        <v>3214108</v>
       </c>
       <c r="J117" t="n">
-        <v>35000</v>
+        <v>3214108</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4178,28 +4178,28 @@
         <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>2485715</v>
+        <v>2667</v>
       </c>
       <c r="D118" t="n">
-        <v>4513102</v>
+        <v>175724.5</v>
       </c>
       <c r="E118" t="n">
-        <v>4267</v>
+        <v>40571.01</v>
       </c>
       <c r="F118" t="n">
-        <v>32649</v>
+        <v>5361.98</v>
       </c>
       <c r="G118" t="n">
-        <v>401078</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2561</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>7439372</v>
+        <v>224324.49</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4211,25 +4211,25 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E119" t="n">
-        <v>64032</v>
+        <v>7786.8</v>
       </c>
       <c r="F119" t="n">
-        <v>231366</v>
+        <v>16686.21</v>
       </c>
       <c r="G119" t="n">
-        <v>301213</v>
+        <v>13346.6</v>
       </c>
       <c r="H119" t="n">
-        <v>21863</v>
+        <v>651.65</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>618474</v>
+        <v>43171.26</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4256,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>3214108</v>
+        <v>1500</v>
       </c>
       <c r="J120" t="n">
-        <v>3214108</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4270,28 +4270,28 @@
         <v>11</v>
       </c>
       <c r="C121" t="n">
-        <v>2667</v>
+        <v>507078</v>
       </c>
       <c r="D121" t="n">
-        <v>175724.5</v>
+        <v>2974195</v>
       </c>
       <c r="E121" t="n">
-        <v>40571.01</v>
+        <v>1537179</v>
       </c>
       <c r="F121" t="n">
-        <v>5361.98</v>
+        <v>102416</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>521019</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>12458</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>224324.49</v>
+        <v>5654345</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4303,25 +4303,25 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>7786.8</v>
+        <v>39500</v>
       </c>
       <c r="F122" t="n">
-        <v>16686.21</v>
+        <v>115614</v>
       </c>
       <c r="G122" t="n">
-        <v>13346.6</v>
+        <v>265545</v>
       </c>
       <c r="H122" t="n">
-        <v>651.65</v>
+        <v>45107</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>43171.26</v>
+        <v>465766</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4348,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1500</v>
+        <v>7666519</v>
       </c>
       <c r="J123" t="n">
-        <v>1500</v>
+        <v>7666519</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5306,17 +5306,17 @@
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A89"/>
     <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A97"/>
     <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A104:A106"/>
     <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A114"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A118:A120"/>
     <mergeCell ref="A121:A123"/>
